--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Mile_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3D1F1-6FC0-4B91-A334-9F4D19DE7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC331D86-D778-44E0-9880-DED2C3FCD5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>what</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Psicología</t>
   </si>
   <si>
-    <t>Biología</t>
-  </si>
-  <si>
-    <t>Pedagogía Musical</t>
-  </si>
-  <si>
     <t>2017 - 2018</t>
   </si>
   <si>
@@ -68,163 +62,127 @@
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria Alejandra Abello Mozo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Jairo Rubio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lina María García Hoyos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angie Liliana Pérez Rodríguez  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lina María Morales Sánchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Milena Estupiñan Aldana  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanesa Díaz Güiza  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cindy Paola Moncada Gómez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haydn Ricardo Roldán Morales </t>
-  </si>
-  <si>
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>2019 - 2021</t>
-  </si>
-  <si>
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2019 - 2020</t>
-  </si>
-  <si>
     <t>2018 - 2019</t>
   </si>
   <si>
     <t>2016 - 2017</t>
   </si>
   <si>
-    <t>2016 - 2018</t>
-  </si>
-  <si>
-    <t>2015 - 2016</t>
-  </si>
-  <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Supervisión docente (2019 - actualmente)</t>
-  </si>
-  <si>
-    <t>Desde 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia Elízabeth Moreno Buitrago y Juan Felipe Pérez Ariza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angie Alejandra Lozano Sanjuan, Daniela Martínez Franco y Mariana Saavedra Botero  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Daniela Martínez Luna y Juan Sebastián Preciado Ruíz </t>
-  </si>
-  <si>
-    <t>Maria Paula Moreno Rodríguez y Andrés Felipe Orozco Serrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny Ferley Gaitan Rodríguez y Hasbleidy Gamboa Ordoñez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula Andrea Betancourt Velandia y Ana Sofía Gómez Castelblanco  </t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{¿Se puede determinar si una persona ha sido infiel a partir de su voz?}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{La voz del sexo casual: ¿las características vocales predicen la disposición al sexo sin compromiso en hombres y mujeres? A}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{La voz del sexo casual: ¿las características vocales predicen la disposición al sexo sin compromiso en hombres y mujeres? C}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{La voz del sexo casual: ¿las características vocales predicen la disposición al sexo sin compromiso en hombres y mujeres? B}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{El sonido de la seducción: discriminación tonal, satisfacción en pareja, y niveles hormonales en hombres}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{Efectos de los niveles hormonales en la discriminación tonal de mujeres}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{Discriminación tonal predice satisfacción con pareja y su inversión parental, en hombres y mujeres}</t>
-  </si>
-  <si>
-    <t>Proyecto: \textit{Señales perceptibles de salud física y mental en rostros, voces y olores corporales, y su relación con niveles hormonales}</t>
-  </si>
-  <si>
-    <t>\href{https://www.upn.edu.co/}{U. Pedagógica Nacional}, Colombia</t>
-  </si>
-  <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{Desarrollo y evaluación de una metodología nueva para manipular las variables del atractivo, dominancia y sexo simultáneamente en fotos de caras humanas con el programa PsychoMorph}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{Hombres que alcanzan voces menos agudas y con un volumen más bajo, tienden a tener más relaciones sexuales casuales}</t>
-  </si>
-  <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/A9xNV3BqRJw}{¿Somos capaces de detectar qué tan sociosexual es una persona a partir de su voz y/o su rostro?}}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{\href{https://youtu.be/G9eqxpyKF5A}{¿Existe relación entre la simetría facial y el atractivo de la voz?} }</t>
-  </si>
-  <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/BNNseX-PK7s}{¿Existe relación entre la sociosexualidad y la voz?}}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{\href{https://youtu.be/qHn87CoBEm4}{¿Existe relación entre la forma del rostro y la socio-sexualidad?}}</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{\href{https://youtu.be/J6nUuifYjbU}{Detección de infidelidad y sociosexualidad a partir de rostros: Análisis preliminar}}</t>
-  </si>
-  <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{http://hdl.handle.net/20.500.12209/10443}{Musicalidad y cohesión social: una aproximación experimental y bibliográfica desde el trabajo en equipo}}</t>
-  </si>
-  <si>
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Maria Camila Wilches y Johan Sebatián Castiblanco</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{\href{https://youtu.be/FlZvukFqTcc}{El rol del género en la identificación de la sociosexualidad a partir de las voces}}</t>
-  </si>
-  <si>
-    <t>Isabella Russo</t>
-  </si>
-  <si>
-    <t>Trabajo de grado: \textit{\href{https://youtu.be/nX3p5Bt_vjQ}{¿El género, preferenca sexual y nivel de sociosexualidad de una persona podrían influir en su capacidad para detectar la sociosexualidad de otros a través de rostros?}}</t>
-  </si>
-  <si>
-    <t>Supevisión práctica profesional en investigación (2017 - 2018)</t>
-  </si>
-  <si>
-    <t>\href{https://www.linkedin.com/in/andres-castellanos-chacon/}{Andrés Castellanos-Chacón}</t>
-  </si>
-  <si>
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Trabajo de grado: \textit{\href{https://youtu.be/Pb-00b41j98?si=eCUPFx7sb5duEufx}{¿Es posible percibir la promiscuidad de una persona con tan solo escuchar su voz?}}</t>
-  </si>
-  <si>
-    <t>Scharik Yuliana Bello Lizarazo, Maria Camila Plazas López y Natalia Rodríguez Bautista</t>
+    <t>Stywear Villamil</t>
+  </si>
+  <si>
+    <t>2013 - 2014</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Relación entre el nivel de consumo de alcohol y el rendimiento en procesos de función ejecutiva en estudiantes universitarios entre los 18 y 25 años}</t>
+  </si>
+  <si>
+    <t>\href{https://www.usbmed.edu.co/}{Universidad San Buenaventura de Medellín}, Colombia</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Descripción de la respuesta afectiva a través de inducción emocional con imágenes y relación con la función ejecutiva en niños con inatención y conducta hiperactiva en etapa escolar}</t>
+  </si>
+  <si>
+    <t>2014 - 2015</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Apego parental y su relación con el apego romántico y la dependencia afectiva en 119 universitarios de la ciudad de Ibagué Colombia}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelle Jiménez Lafont   </t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Relación entre la proporción 2D:4D y la orientación sexual, agresión y fantasías sexuales en población universitaria?}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ileana Andrea Parra    </t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Estudio de las preferencias sexuales según el índice de masa corporal femenino utilizando la técnica de rastreo ocular}</t>
+  </si>
+  <si>
+    <t>Angela Isabel Jiménez Machado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Andrés Castellanos   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Enrique Torres  </t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Efecto del contenido emocional de los estímulos sobre el patrón de atención visual temprano y tardío en personas sin trastornos afectivos: un estudio piloto con eye-tracking}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: 
+\textit{ Diferencia en los patrones de atención visual en mujeres según la disponibilidad de recursos: Un estudio de eye-tracking}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}:
+ \textit{Comparación del Efecto de Paradigmas Experimentales Con y Sin Distractores No Sexuales en la Identificación de Preferencias Sexuales Según la Edad de los Estímulos en Hombres Heterosexuales}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: 
+\textit{Diferencias en Proporción 2D:4D entre delincuentes sexuales, no sexuales y población general}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: 
+\textit{¿Predice la VFC los sesgos atencionales negativos a estímulos emocionales de personas sin trastornos afectivos?}</t>
+  </si>
+  <si>
+    <t>Clara Valentina Rendón Martínez</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: 
+\textit{Pensamientos negativos hacia estímulos sexuales y su efecto sobre la atención a estímulos eróticos en hombres y mujeres cisgénero}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: 
+\textit{Influencia de la frecuencia del uso de pornografía en la excitación, deseo y satisfacción sexual en hombres y mujeres con pareja}</t>
+  </si>
+  <si>
+    <t>Valentina Cepeda Monsalve</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Sesgos atencionales según la edad del estímulo hacia distractores sexuales durante una tarea cognitiva en universitarios }</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{El atractivo de lo erótico: diferencias en el patrón de atención visual sobre estímulos eróticos y no eróticos de hombres heterosexuales}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{El rol de los pensamientos automáticos en la respuesta sexual humana – revisión teórica}</t>
+  </si>
+  <si>
+    <t>Emily Valentina Roa Reatiga y Juan Sebastián Torres Herrera</t>
+  </si>
+  <si>
+    <t>María Paula Díaz y Camila Galeano</t>
+  </si>
+  <si>
+    <t>Laura Saenz Vanegas, Sofía Noriega Rey, y Daniela Hueso Fajardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Uribe y Daniela Arias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina Andrade y Jhoana Andrea Ángel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Patricia Lozano Sapuy y Andrea Ángel Albarracín  </t>
+  </si>
+  <si>
+    <t>Stefania García y Camila Remicio</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1056,7 @@
     <col min="5" max="5" width="73.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1115,355 +1073,311 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>2023</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1493,55 +1407,6 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Mile_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Mile_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC331D86-D778-44E0-9880-DED2C3FCD5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE175B2B-2DE1-4971-A6B3-4ACCAA570BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>what</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Stefania García y Camila Remicio</t>
+  </si>
+  <si>
+    <t>Angela Rivero Valderrama y Sebastián Camilo Valenzuela</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Preferencias por estímulos sexuales eróticos según género y la orientación sexual: un estudio con eye-tracking}</t>
   </si>
 </sst>
 </file>
@@ -688,48 +694,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,9 +751,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -785,7 +791,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -891,7 +897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1033,7 +1039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1041,22 +1047,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1081,85 +1087,84 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1167,17 +1172,17 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1185,50 +1190,51 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1236,16 +1242,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1253,67 +1259,67 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1321,91 +1327,108 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
